--- a/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8BB967-1679-45FC-9AA5-8379DCE0E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F94311-8A1F-4C6D-9111-0F0EF2E2329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{42A5CBDC-D48A-4E5A-98E6-CA02568BDF07}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{367ACB1E-04D5-497E-B306-D3468901DBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,6 +83,84 @@
     <t>15,69%</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
     <t>19,29%</t>
   </si>
   <si>
@@ -95,90 +173,267 @@
     <t>62,28%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
     <t>17,08%</t>
   </si>
   <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
     <t>12,64%</t>
   </si>
   <si>
@@ -191,264 +446,264 @@
     <t>31,41%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
     <t>5,37%</t>
   </si>
   <si>
@@ -459,261 +714,6 @@
   </si>
   <si>
     <t>11,61%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C64719F-17D4-4D72-85FF-B8E0AABC11F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81BAE11-C515-4646-8565-5470725C9C2B}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1220,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1271,58 +1271,58 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1340,40 +1340,40 @@
         <v>12</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1391,40 +1391,40 @@
         <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1558</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1442,40 +1442,40 @@
         <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1526,7 +1526,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1547,37 +1547,37 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>725</v>
+        <v>391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>725</v>
+        <v>391</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1628,7 +1628,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1700,37 +1700,37 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>391</v>
+        <v>725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>391</v>
+        <v>725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1799,40 +1799,40 @@
         <v>12</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1850,40 +1850,40 @@
         <v>12</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1558</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1558</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1901,91 +1901,91 @@
         <v>12</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2045,13 +2045,13 @@
         <v>319</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2060,13 +2060,13 @@
         <v>3755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -2075,13 +2075,13 @@
         <v>4074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,34 +2089,34 @@
         <v>45</v>
       </c>
       <c r="B21" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>48</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>620</v>
+        <v>159</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>49</v>
@@ -2140,7 +2140,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2155,43 +2155,43 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>570</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2206,196 +2206,196 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>632</v>
+        <v>871</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="7">
+        <v>7</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2809</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
-        <v>633</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2447</v>
+        <v>1724</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>843</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2568</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2447</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>3148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2440,28 +2440,28 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2476,43 +2476,43 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2527,94 +2527,94 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>159</v>
+        <v>636</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>635</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>159</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2629,28 +2629,28 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2665,43 +2665,43 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>2444</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>2445</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2746,28 +2746,28 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2782,94 +2782,94 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>2838</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H35" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>3315</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2884,22 +2884,22 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,72 +2908,72 @@
         <v>3</v>
       </c>
       <c r="C37" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7">
-        <v>8037</v>
+        <v>7341</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H37" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I37" s="7">
-        <v>4902</v>
+        <v>2885</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
       </c>
       <c r="N37" s="7">
-        <v>12939</v>
+        <v>10226</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B38" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2988,91 +2988,91 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>98</v>
@@ -3090,28 +3090,28 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>159</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3177,59 +3177,59 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>0</v>
+        <v>2444</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -3243,37 +3243,37 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>636</v>
+        <v>159</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -3294,43 +3294,43 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>635</v>
+        <v>159</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3345,43 +3345,43 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M45" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="7">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3396,28 +3396,28 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3462,166 +3462,166 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C48" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>1977</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="M48" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>3148</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C49" s="7">
         <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>1724</v>
+        <v>2447</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M49" s="7">
+        <v>3</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2447</v>
+      </c>
+      <c r="O49" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="I49" s="7">
-        <v>843</v>
-      </c>
-      <c r="J49" s="7" t="s">
+      <c r="P49" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M49" s="7">
-        <v>4</v>
-      </c>
-      <c r="N49" s="7">
-        <v>2568</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C50" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>632</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1</v>
+      </c>
+      <c r="N50" s="7">
+        <v>633</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H50" s="7">
-        <v>4</v>
-      </c>
-      <c r="I50" s="7">
-        <v>871</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M50" s="7">
-        <v>7</v>
-      </c>
-      <c r="N50" s="7">
-        <v>2809</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -3636,43 +3636,43 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -3687,79 +3687,79 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="M52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>620</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="K53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="M53" s="7">
         <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>159</v>
+        <v>620</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>134</v>
@@ -3777,49 +3777,49 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" s="7">
-        <v>7341</v>
+        <v>8037</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H54" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I54" s="7">
-        <v>2885</v>
+        <v>4902</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M54" s="7">
         <v>18</v>
       </c>
       <c r="N54" s="7">
-        <v>10226</v>
+        <v>12939</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,43 +3827,43 @@
         <v>3</v>
       </c>
       <c r="B55" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>138</v>
       </c>
       <c r="M55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" s="7">
-        <v>620</v>
+        <v>318</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>139</v>
@@ -3878,328 +3878,328 @@
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>3157</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" s="7">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M56" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N56" s="7">
-        <v>570</v>
+        <v>3792</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>159</v>
+        <v>605</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" s="7">
-        <v>159</v>
+        <v>764</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C58" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H58" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I58" s="7">
-        <v>633</v>
+        <v>2429</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M58" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N58" s="7">
-        <v>633</v>
+        <v>4368</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C59" s="7">
         <v>3</v>
       </c>
       <c r="D59" s="7">
-        <v>2447</v>
+        <v>1724</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H59" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59" s="7">
-        <v>0</v>
+        <v>3606</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M59" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N59" s="7">
-        <v>2447</v>
+        <v>5330</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C60" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" s="7">
-        <v>906</v>
+        <v>1977</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="7">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M60" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N60" s="7">
-        <v>906</v>
+        <v>3148</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>635</v>
+        <v>159</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>725</v>
+        <v>391</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
       </c>
       <c r="N61" s="7">
-        <v>1360</v>
+        <v>550</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="7">
-        <v>1175</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4214,43 +4214,43 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62" s="7">
-        <v>1175</v>
+        <v>1100</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C63" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="7">
-        <v>1100</v>
+        <v>1175</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4265,244 +4265,244 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M63" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" s="7">
-        <v>1100</v>
+        <v>1175</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>159</v>
+        <v>635</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
       </c>
       <c r="I64" s="7">
-        <v>391</v>
+        <v>725</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
       </c>
       <c r="N64" s="7">
-        <v>550</v>
+        <v>1360</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C65" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>1977</v>
+        <v>906</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="M65" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N65" s="7">
-        <v>3148</v>
+        <v>906</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C66" s="7">
         <v>3</v>
       </c>
       <c r="D66" s="7">
-        <v>1724</v>
+        <v>2447</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H66" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>3606</v>
+        <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="M66" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N66" s="7">
-        <v>5330</v>
+        <v>2447</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C67" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D67" s="7">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H67" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I67" s="7">
-        <v>2429</v>
+        <v>633</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M67" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N67" s="7">
-        <v>4368</v>
+        <v>633</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>209</v>
@@ -4511,79 +4511,79 @@
         <v>1</v>
       </c>
       <c r="I68" s="7">
-        <v>605</v>
+        <v>159</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M68" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68" s="7">
-        <v>764</v>
+        <v>159</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C69" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D69" s="7">
-        <v>3157</v>
+        <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H69" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69" s="7">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M69" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>3792</v>
+        <v>570</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
         <v>221</v>
@@ -4592,43 +4592,43 @@
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C70" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7">
+        <v>620</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="K70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>0</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="M70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70" s="7">
-        <v>318</v>
+        <v>620</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>224</v>
@@ -4652,13 +4652,13 @@
         <v>15696</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H71" s="7">
         <v>23</v>
@@ -4667,13 +4667,13 @@
         <v>11543</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M71" s="7">
         <v>47</v>
@@ -4682,13 +4682,13 @@
         <v>27239</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F94311-8A1F-4C6D-9111-0F0EF2E2329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C04F3DF-E49B-4534-9341-E120B96971DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{367ACB1E-04D5-497E-B306-D3468901DBE8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1FD1620-4E41-4D08-AD7C-D132CA271E10}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="230">
   <si>
     <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -74,7 +74,79 @@
     <t>0%</t>
   </si>
   <si>
-    <t>56,93%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>3-7</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -83,637 +155,577 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
     <t>7,61%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>8,01%</t>
+    <t>13,8%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,53%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>26,66%</t>
+    <t>26,24%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>11,36%</t>
+    <t>11,22%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>27,06%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -724,7 +736,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -820,39 +832,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -904,7 +916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1015,13 +1027,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1030,6 +1035,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1094,19 +1106,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81BAE11-C515-4646-8565-5470725C9C2B}">
-  <dimension ref="A1:Q71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE54378-63B5-44C3-B236-A8B309681729}">
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1274,10 +1306,10 @@
         <v>2021</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
@@ -1289,34 +1321,34 @@
         <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
         <v>159</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>478</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,13 +1378,13 @@
         <v>605</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1361,13 +1393,13 @@
         <v>605</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,34 +1423,34 @@
         <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1558</v>
+        <v>354</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>354</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="7">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1558</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,34 +1474,34 @@
         <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,34 +1576,34 @@
         <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,16 +1732,16 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1718,13 +1750,13 @@
         <v>725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2054,10 +2086,10 @@
         <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>3755</v>
+        <v>1842</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -2069,10 +2101,10 @@
         <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>4074</v>
+        <v>2002</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2086,25 +2118,25 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5">
         <v>2022</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2119,22 +2151,22 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,49 +2175,49 @@
         <v>2021</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2221,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2236,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,43 +2283,43 @@
         <v>1938</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2075</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="7">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>4014</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7">
-        <v>871</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
-        <v>7</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,43 +2334,43 @@
         <v>1724</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1002</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2726</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>843</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2568</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,19 +2379,19 @@
         <v>2017</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1977</v>
+        <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2368,28 +2400,28 @@
         <v>1171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>3148</v>
+        <v>1330</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,37 +2442,37 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2493,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2476,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2491,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,7 +2544,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2527,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2542,7 +2574,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2578,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2587,13 +2619,13 @@
         <v>635</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,19 +2634,19 @@
         <v>2011</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2629,22 +2661,22 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2680,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2695,7 +2727,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2748,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2731,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2746,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2782,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2797,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2833,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -2848,7 +2880,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2884,7 +2916,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2899,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,10 +2940,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>7341</v>
+        <v>4616</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -2923,10 +2955,10 @@
         <v>17</v>
       </c>
       <c r="H37" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I37" s="7">
-        <v>2885</v>
+        <v>4798</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>17</v>
@@ -2938,10 +2970,10 @@
         <v>17</v>
       </c>
       <c r="M37" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>10226</v>
+        <v>9414</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>17</v>
@@ -2955,7 +2987,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B38" s="5">
         <v>2022</v>
@@ -2967,13 +2999,13 @@
         <v>159</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2988,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2997,13 +3029,13 @@
         <v>159</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,49 +3044,49 @@
         <v>2021</v>
       </c>
       <c r="C39" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="7">
-        <v>2838</v>
+        <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H39" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="7">
-        <v>476</v>
+        <v>317</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="M39" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" s="7">
-        <v>3315</v>
+        <v>317</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,49 +3095,49 @@
         <v>2020</v>
       </c>
       <c r="C40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M40" s="7">
-        <v>1</v>
-      </c>
-      <c r="N40" s="7">
-        <v>159</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3158,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3141,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3156,7 +3188,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,37 +3209,37 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
+        <v>2445</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="N42" s="7">
         <v>2444</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M42" s="7">
-        <v>1</v>
-      </c>
-      <c r="N42" s="7">
-        <v>2445</v>
-      </c>
       <c r="O42" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,19 +3248,19 @@
         <v>2017</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3243,22 +3275,22 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,49 +3299,49 @@
         <v>2015</v>
       </c>
       <c r="C44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="7">
-        <v>1</v>
-      </c>
-      <c r="N44" s="7">
-        <v>159</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,19 +3350,19 @@
         <v>2014</v>
       </c>
       <c r="C45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3345,22 +3377,22 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3407,13 @@
         <v>1175</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3396,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3405,13 +3437,13 @@
         <v>1175</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3447,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3462,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,49 +3503,49 @@
         <v>2011</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7">
+        <v>906</v>
+      </c>
+      <c r="O48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="P48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,19 +3554,19 @@
         <v>2010</v>
       </c>
       <c r="C49" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>2447</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3549,22 +3581,22 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M49" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>2447</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,37 +3617,37 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,37 +3668,37 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="M51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,37 +3719,37 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="M52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,37 +3770,37 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="M53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,10 +3809,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D54" s="7">
-        <v>8037</v>
+        <v>4058</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>17</v>
@@ -3792,10 +3824,10 @@
         <v>17</v>
       </c>
       <c r="H54" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I54" s="7">
-        <v>4902</v>
+        <v>2762</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>17</v>
@@ -3807,10 +3839,10 @@
         <v>17</v>
       </c>
       <c r="M54" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N54" s="7">
-        <v>12939</v>
+        <v>6820</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>17</v>
@@ -3824,25 +3856,25 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
       </c>
       <c r="C55" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -3857,22 +3889,22 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="M55" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,49 +3913,49 @@
         <v>2021</v>
       </c>
       <c r="C56" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>3157</v>
+        <v>2838</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="H56" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I56" s="7">
-        <v>635</v>
+        <v>159</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="M56" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N56" s="7">
-        <v>3792</v>
+        <v>2998</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,43 +3970,43 @@
         <v>159</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="H57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="M57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57" s="7">
-        <v>764</v>
+        <v>159</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,49 +4015,49 @@
         <v>2019</v>
       </c>
       <c r="C58" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="H58" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="M58" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>4368</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,49 +4066,49 @@
         <v>2018</v>
       </c>
       <c r="C59" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>1724</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="H59" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>3606</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="M59" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,49 +4117,49 @@
         <v>2017</v>
       </c>
       <c r="C60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>1977</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="H60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="M60" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>3148</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,43 +4174,43 @@
         <v>159</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="H61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="M61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>550</v>
+        <v>159</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4225,13 @@
         <v>1100</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4214,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
@@ -4223,13 +4255,13 @@
         <v>1100</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,19 +4270,19 @@
         <v>2013</v>
       </c>
       <c r="C63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4265,22 +4297,22 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="M63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,49 +4321,49 @@
         <v>2012</v>
       </c>
       <c r="C64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="H64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="M64" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,19 +4372,19 @@
         <v>2011</v>
       </c>
       <c r="C65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4367,22 +4399,22 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="M65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4429,13 @@
         <v>2447</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4418,7 +4450,7 @@
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -4427,13 +4459,13 @@
         <v>2447</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,7 +4486,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4463,13 +4495,13 @@
         <v>633</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -4478,13 +4510,13 @@
         <v>633</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4537,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4514,13 +4546,13 @@
         <v>159</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -4529,13 +4561,13 @@
         <v>159</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -4565,13 +4597,13 @@
         <v>570</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -4580,13 +4612,13 @@
         <v>570</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -4616,13 +4648,13 @@
         <v>620</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -4631,13 +4663,13 @@
         <v>620</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,10 +4678,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D71" s="7">
-        <v>15696</v>
+        <v>6862</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>17</v>
@@ -4661,10 +4693,10 @@
         <v>17</v>
       </c>
       <c r="H71" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I71" s="7">
-        <v>11543</v>
+        <v>2141</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>17</v>
@@ -4676,10 +4708,10 @@
         <v>17</v>
       </c>
       <c r="M71" s="7">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N71" s="7">
-        <v>27239</v>
+        <v>9003</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>17</v>
@@ -4691,10 +4723,885 @@
         <v>17</v>
       </c>
     </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C72" s="7">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7">
+        <v>318</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M72" s="7">
+        <v>2</v>
+      </c>
+      <c r="N72" s="7">
+        <v>318</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C73" s="7">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3157</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H73" s="7">
+        <v>4</v>
+      </c>
+      <c r="I73" s="7">
+        <v>635</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M73" s="7">
+        <v>7</v>
+      </c>
+      <c r="N73" s="7">
+        <v>3792</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7">
+        <v>159</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7">
+        <v>605</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M74" s="7">
+        <v>2</v>
+      </c>
+      <c r="N74" s="7">
+        <v>764</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1938</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H75" s="7">
+        <v>7</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2429</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M75" s="7">
+        <v>10</v>
+      </c>
+      <c r="N75" s="7">
+        <v>4368</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="7">
+        <v>3</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1724</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" s="7">
+        <v>4</v>
+      </c>
+      <c r="I76" s="7">
+        <v>3606</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M76" s="7">
+        <v>7</v>
+      </c>
+      <c r="N76" s="7">
+        <v>5330</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1977</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+      <c r="I77" s="7">
+        <v>1171</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M77" s="7">
+        <v>4</v>
+      </c>
+      <c r="N77" s="7">
+        <v>3148</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>159</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" s="7">
+        <v>391</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2</v>
+      </c>
+      <c r="N78" s="7">
+        <v>550</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C79" s="7">
+        <v>2</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1100</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M79" s="7">
+        <v>2</v>
+      </c>
+      <c r="N79" s="7">
+        <v>1100</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1175</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M80" s="7">
+        <v>1</v>
+      </c>
+      <c r="N80" s="7">
+        <v>1175</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7">
+        <v>635</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+      <c r="I81" s="7">
+        <v>725</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M81" s="7">
+        <v>2</v>
+      </c>
+      <c r="N81" s="7">
+        <v>1360</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>906</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M82" s="7">
+        <v>1</v>
+      </c>
+      <c r="N82" s="7">
+        <v>906</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C83" s="7">
+        <v>3</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2447</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M83" s="7">
+        <v>3</v>
+      </c>
+      <c r="N83" s="7">
+        <v>2447</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1</v>
+      </c>
+      <c r="I84" s="7">
+        <v>633</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M84" s="7">
+        <v>1</v>
+      </c>
+      <c r="N84" s="7">
+        <v>633</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7">
+        <v>159</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M85" s="7">
+        <v>1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>159</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H86" s="7">
+        <v>1</v>
+      </c>
+      <c r="I86" s="7">
+        <v>570</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M86" s="7">
+        <v>1</v>
+      </c>
+      <c r="N86" s="7">
+        <v>570</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="7">
+        <v>620</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M87" s="7">
+        <v>1</v>
+      </c>
+      <c r="N87" s="7">
+        <v>620</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7">
+        <v>24</v>
+      </c>
+      <c r="D88" s="7">
+        <v>15696</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="7">
+        <v>23</v>
+      </c>
+      <c r="I88" s="7">
+        <v>11543</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="7">
+        <v>47</v>
+      </c>
+      <c r="N88" s="7">
+        <v>27239</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A38:A54"/>
     <mergeCell ref="A55:A71"/>
+    <mergeCell ref="A72:A88"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C04F3DF-E49B-4534-9341-E120B96971DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{392824A6-4EFD-4109-9AA6-D6F35754F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1FD1620-4E41-4D08-AD7C-D132CA271E10}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83D1667F-F3DE-4024-B8F1-DD458AF9E023}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="226">
   <si>
     <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>65,84%</t>
+    <t>61,85%</t>
   </si>
   <si>
     <t>32,84%</t>
@@ -107,7 +107,7 @@
     <t>30,22%</t>
   </si>
   <si>
-    <t>85,08%</t>
+    <t>85,09%</t>
   </si>
   <si>
     <t>19,21%</t>
@@ -119,31 +119,28 @@
     <t>17,68%</t>
   </si>
   <si>
-    <t>76,96%</t>
+    <t>76,94%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>57,4%</t>
-  </si>
-  <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>59,93%</t>
+    <t>48,99%</t>
   </si>
   <si>
     <t>39,32%</t>
   </si>
   <si>
-    <t>93,92%</t>
+    <t>93,19%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>87,23%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -161,520 +158,511 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>24,95%</t>
+    <t>23,11%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>22,05%</t>
+    <t>24,04%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>28,65%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>45,82%</t>
+    <t>45,69%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>8,47%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>22,42%</t>
+    <t>22,88%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>14,68%</t>
+    <t>14,73%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>38,2%</t>
+    <t>37,63%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>23,59%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>19,81%</t>
+    <t>23,26%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>33,0%</t>
+    <t>32,29%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>16,97%</t>
+    <t>16,6%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>29,68%</t>
+    <t>31,52%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -683,46 +671,46 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>26,24%</t>
+    <t>26,87%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>11,22%</t>
+    <t>11,95%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>27,06%</t>
+    <t>29,45%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1137,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE54378-63B5-44C3-B236-A8B309681729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E3254E-BAB9-4B38-87F4-9ECFCDB54F3F}">
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1495,13 +1483,13 @@
         <v>159</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,13 +1723,13 @@
         <v>724</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1750,13 +1738,13 @@
         <v>725</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,7 +2106,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="5">
         <v>2022</v>
@@ -2136,37 +2124,37 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2169,13 @@
         <v>159</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2196,13 +2184,13 @@
         <v>159</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2211,13 +2199,13 @@
         <v>318</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,37 +2226,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2271,13 @@
         <v>1938</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2298,13 +2286,13 @@
         <v>2075</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2313,13 +2301,13 @@
         <v>4014</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2322,13 @@
         <v>1724</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2349,13 +2337,13 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2364,13 +2352,13 @@
         <v>2726</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2373,13 @@
         <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2400,13 +2388,13 @@
         <v>1171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2415,13 +2403,13 @@
         <v>1330</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2430,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2451,13 +2439,13 @@
         <v>391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2466,13 +2454,13 @@
         <v>391</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,37 +2481,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,37 +2532,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2577,13 @@
         <v>635</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2610,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2619,13 +2607,13 @@
         <v>635</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,37 +2634,37 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,37 +2685,37 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,37 +2736,37 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,37 +2787,37 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,37 +2838,37 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,37 +2889,37 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,7 +2975,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="5">
         <v>2022</v>
@@ -2999,28 +2987,28 @@
         <v>159</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -3029,13 +3017,13 @@
         <v>159</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,7 +3053,7 @@
         <v>317</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
@@ -3080,13 +3068,13 @@
         <v>317</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3137,7 +3125,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3188,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3206,7 @@
         <v>2445</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
@@ -3233,13 +3221,13 @@
         <v>2444</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3242,13 @@
         <v>1818</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3275,7 +3263,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3284,13 +3272,13 @@
         <v>1818</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3341,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3392,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3395,13 @@
         <v>1175</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3428,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3437,13 +3425,13 @@
         <v>1175</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3494,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3497,13 @@
         <v>906</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3530,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -3539,13 +3527,13 @@
         <v>906</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3569,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3596,7 +3584,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,7 +3620,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3647,7 +3635,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3671,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -3698,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3722,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -3749,7 +3737,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,7 +3773,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -3800,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3844,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
@@ -3868,13 +3856,13 @@
         <v>159</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -3898,13 +3886,13 @@
         <v>159</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3907,13 @@
         <v>2838</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -3934,13 +3922,13 @@
         <v>159</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -3949,13 +3937,13 @@
         <v>2998</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3958,13 @@
         <v>159</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4000,13 +3988,13 @@
         <v>159</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,7 +4015,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4057,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4066,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4108,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,7 +4117,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4159,7 +4147,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4162,13 @@
         <v>159</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4204,13 +4192,13 @@
         <v>159</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4213,13 @@
         <v>1100</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4255,13 +4243,13 @@
         <v>1100</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4312,7 +4300,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4363,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,7 +4372,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4414,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4417,13 @@
         <v>2447</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4459,13 +4447,13 @@
         <v>2447</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4495,13 +4483,13 @@
         <v>633</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -4510,13 +4498,13 @@
         <v>633</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4525,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4546,13 +4534,13 @@
         <v>159</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -4561,13 +4549,13 @@
         <v>159</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4576,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -4597,13 +4585,13 @@
         <v>570</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -4612,13 +4600,13 @@
         <v>570</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4627,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -4648,13 +4636,13 @@
         <v>620</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -4663,13 +4651,13 @@
         <v>620</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4725,13 @@
         <v>318</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -4758,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
@@ -4767,13 +4755,13 @@
         <v>318</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4776,13 @@
         <v>3157</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H73" s="7">
         <v>4</v>
@@ -4803,13 +4791,13 @@
         <v>635</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M73" s="7">
         <v>7</v>
@@ -4818,13 +4806,13 @@
         <v>3792</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4827,13 @@
         <v>159</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -4854,13 +4842,13 @@
         <v>605</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -4869,13 +4857,13 @@
         <v>764</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4878,13 @@
         <v>1938</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H75" s="7">
         <v>7</v>
@@ -4905,13 +4893,13 @@
         <v>2429</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M75" s="7">
         <v>10</v>
@@ -4920,13 +4908,13 @@
         <v>4368</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4929,13 @@
         <v>1724</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H76" s="7">
         <v>4</v>
@@ -4956,13 +4944,13 @@
         <v>3606</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M76" s="7">
         <v>7</v>
@@ -4971,13 +4959,13 @@
         <v>5330</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4980,13 @@
         <v>1977</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -5007,13 +4995,13 @@
         <v>1171</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M77" s="7">
         <v>4</v>
@@ -5022,13 +5010,13 @@
         <v>3148</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5031,13 @@
         <v>159</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -5058,13 +5046,13 @@
         <v>391</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M78" s="7">
         <v>2</v>
@@ -5073,13 +5061,13 @@
         <v>550</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5082,13 @@
         <v>1100</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -5115,7 +5103,7 @@
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -5124,13 +5112,13 @@
         <v>1100</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5133,13 @@
         <v>1175</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5166,7 +5154,7 @@
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M80" s="7">
         <v>1</v>
@@ -5175,13 +5163,13 @@
         <v>1175</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5184,13 @@
         <v>635</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -5211,13 +5199,13 @@
         <v>725</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M81" s="7">
         <v>2</v>
@@ -5226,13 +5214,13 @@
         <v>1360</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5235,13 @@
         <v>906</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -5268,7 +5256,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -5277,13 +5265,13 @@
         <v>906</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5286,13 @@
         <v>2447</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -5319,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M83" s="7">
         <v>3</v>
@@ -5328,13 +5316,13 @@
         <v>2447</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -5364,13 +5352,13 @@
         <v>633</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -5379,13 +5367,13 @@
         <v>633</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -5415,13 +5403,13 @@
         <v>159</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5430,13 +5418,13 @@
         <v>159</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -5466,13 +5454,13 @@
         <v>570</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M86" s="7">
         <v>1</v>
@@ -5481,13 +5469,13 @@
         <v>570</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5496,7 @@
         <v>11</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
@@ -5517,13 +5505,13 @@
         <v>620</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M87" s="7">
         <v>1</v>
@@ -5532,13 +5520,13 @@
         <v>620</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5582,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392824A6-4EFD-4109-9AA6-D6F35754F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDEDE4F-FA5C-4EA2-9D81-1278F1ADBB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83D1667F-F3DE-4024-B8F1-DD458AF9E023}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{938AEEDF-48E0-450C-A556-F5ABC3B36E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="226">
-  <si>
-    <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="229">
+  <si>
+    <t>Menores extranjeros/as según año que llegó a España en 2023 (Tasa respuesta: 2,45%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,12 +74,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>36,25%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
     <t>30,57%</t>
   </si>
   <si>
@@ -92,625 +92,634 @@
     <t>100%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>15,69%</t>
+  </si>
+  <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1125,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E3254E-BAB9-4B38-87F4-9ECFCDB54F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3DA001-2A1D-41B6-BE58-B95128D4DE27}">
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1294,40 +1303,40 @@
         <v>2021</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>165</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>18</v>
@@ -1345,40 +1354,40 @@
         <v>2020</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>22</v>
@@ -1396,40 +1405,40 @@
         <v>2019</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
@@ -1447,49 +1456,49 @@
         <v>2018</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,49 +1711,49 @@
         <v>2012</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>725</v>
+        <v>818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,10 +2068,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>159</v>
+        <v>1969</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2074,10 +2083,10 @@
         <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1842</v>
+        <v>165</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -2092,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>2002</v>
+        <v>2134</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2106,7 +2115,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5">
         <v>2022</v>
@@ -2124,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2139,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2154,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,46 +2175,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,7 +2235,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2241,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2256,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,49 +2274,49 @@
         <v>2019</v>
       </c>
       <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2294</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="7">
-        <v>1938</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
       <c r="I24" s="7">
-        <v>2075</v>
+        <v>2407</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>4014</v>
+        <v>4701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,49 +2325,49 @@
         <v>2018</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1293</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
-        <v>1724</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
       <c r="I25" s="7">
-        <v>1002</v>
+        <v>1879</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>2726</v>
+        <v>3172</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,46 +2379,46 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>159</v>
+        <v>1417</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1171</v>
+        <v>164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>1330</v>
+        <v>1581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,34 +2427,34 @@
         <v>2015</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2454,13 +2463,13 @@
         <v>391</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2496,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2511,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2547,7 +2556,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2562,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2580,49 @@
         <v>2012</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>686</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>635</v>
+        <v>687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2649,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2664,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2700,7 +2709,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2715,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2751,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2766,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2802,7 +2811,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2817,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,7 +2847,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2853,7 +2862,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -2868,7 +2877,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2904,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2919,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>4616</v>
+        <v>5558</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -2943,10 +2952,10 @@
         <v>17</v>
       </c>
       <c r="H37" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>4798</v>
+        <v>5302</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>17</v>
@@ -2961,7 +2970,7 @@
         <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>9414</v>
+        <v>10861</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>17</v>
@@ -2975,55 +2984,55 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="5">
         <v>2022</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,49 +3041,49 @@
         <v>2021</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H39" s="7">
-        <v>2</v>
-      </c>
-      <c r="I39" s="7">
-        <v>317</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
       </c>
       <c r="N39" s="7">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,23 +3104,23 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M40" s="7">
         <v>0</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,23 +3155,23 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,49 +3194,49 @@
         <v>2018</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>3269</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="7">
-        <v>2445</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>2444</v>
+        <v>3269</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3245,49 @@
         <v>2017</v>
       </c>
       <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="7">
         <v>2</v>
       </c>
-      <c r="D43" s="7">
-        <v>1818</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="I43" s="7">
+        <v>2031</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
       </c>
       <c r="N43" s="7">
-        <v>1818</v>
+        <v>2031</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,23 +3308,23 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M44" s="7">
         <v>0</v>
       </c>
@@ -3329,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,23 +3359,23 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
@@ -3380,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,49 +3398,49 @@
         <v>2013</v>
       </c>
       <c r="C46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1149</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,23 +3461,23 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M47" s="7">
         <v>0</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,49 +3500,49 @@
         <v>2011</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7">
+        <v>923</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,23 +3563,23 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
@@ -3584,7 +3593,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,23 +3614,23 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M50" s="7">
         <v>0</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,23 +3665,23 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M51" s="7">
         <v>0</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,23 +3716,23 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M52" s="7">
         <v>0</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,23 +3767,23 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M53" s="7">
         <v>0</v>
       </c>
@@ -3788,7 +3797,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,10 +3806,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" s="7">
-        <v>4058</v>
+        <v>3590</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>17</v>
@@ -3812,10 +3821,10 @@
         <v>17</v>
       </c>
       <c r="H54" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I54" s="7">
-        <v>2762</v>
+        <v>4267</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>17</v>
@@ -3830,7 +3839,7 @@
         <v>8</v>
       </c>
       <c r="N54" s="7">
-        <v>6820</v>
+        <v>7857</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>17</v>
@@ -3844,55 +3853,55 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
       </c>
       <c r="C55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+      <c r="I55" s="7">
+        <v>166</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,46 +3913,46 @@
         <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>2838</v>
+        <v>160</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
       </c>
       <c r="I56" s="7">
-        <v>159</v>
+        <v>5866</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
       </c>
       <c r="N56" s="7">
-        <v>2998</v>
+        <v>6026</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,49 +3961,49 @@
         <v>2020</v>
       </c>
       <c r="C57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
       </c>
       <c r="N57" s="7">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,7 +4024,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4030,7 +4039,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4045,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,7 +4075,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4081,7 +4090,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4096,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4132,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4147,7 +4156,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,49 +4165,49 @@
         <v>2015</v>
       </c>
       <c r="C61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,49 +4216,49 @@
         <v>2014</v>
       </c>
       <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="7">
         <v>2</v>
       </c>
-      <c r="D62" s="7">
-        <v>1100</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
       </c>
       <c r="N62" s="7">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4285,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -4300,7 +4309,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4336,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -4351,7 +4360,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4381,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4387,7 +4396,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -4402,7 +4411,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,49 +4420,49 @@
         <v>2010</v>
       </c>
       <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="7">
         <v>3</v>
       </c>
-      <c r="D66" s="7">
-        <v>2447</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>2653</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
       </c>
       <c r="N66" s="7">
-        <v>2447</v>
+        <v>2653</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,49 +4471,49 @@
         <v>2009</v>
       </c>
       <c r="C67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="H67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
       </c>
       <c r="N67" s="7">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,49 +4522,49 @@
         <v>2008</v>
       </c>
       <c r="C68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="H68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
       </c>
       <c r="N68" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,49 +4573,49 @@
         <v>2007</v>
       </c>
       <c r="C69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,49 +4624,49 @@
         <v>2006</v>
       </c>
       <c r="C70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="H70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
       </c>
       <c r="N70" s="7">
-        <v>620</v>
+        <v>687</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,10 +4675,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D71" s="7">
-        <v>6862</v>
+        <v>2161</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>17</v>
@@ -4681,10 +4690,10 @@
         <v>17</v>
       </c>
       <c r="H71" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I71" s="7">
-        <v>2141</v>
+        <v>10118</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>17</v>
@@ -4699,7 +4708,7 @@
         <v>14</v>
       </c>
       <c r="N71" s="7">
-        <v>9003</v>
+        <v>12278</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>17</v>
@@ -4719,49 +4728,49 @@
         <v>2022</v>
       </c>
       <c r="C72" s="7">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="7">
         <v>2</v>
       </c>
-      <c r="D72" s="7">
-        <v>318</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
       <c r="I72" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
       </c>
       <c r="N72" s="7">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,49 +4779,49 @@
         <v>2021</v>
       </c>
       <c r="C73" s="7">
+        <v>4</v>
+      </c>
+      <c r="D73" s="7">
+        <v>645</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="7">
         <v>3</v>
       </c>
-      <c r="D73" s="7">
-        <v>3157</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H73" s="7">
-        <v>4</v>
-      </c>
       <c r="I73" s="7">
-        <v>635</v>
+        <v>6196</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M73" s="7">
         <v>7</v>
       </c>
       <c r="N73" s="7">
-        <v>3792</v>
+        <v>6842</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,46 +4833,46 @@
         <v>1</v>
       </c>
       <c r="D74" s="7">
+        <v>626</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="H74" s="7">
         <v>1</v>
       </c>
       <c r="I74" s="7">
-        <v>605</v>
+        <v>164</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
       </c>
       <c r="N74" s="7">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,49 +4881,49 @@
         <v>2019</v>
       </c>
       <c r="C75" s="7">
+        <v>7</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2655</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H75" s="7">
         <v>3</v>
       </c>
-      <c r="D75" s="7">
-        <v>1938</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H75" s="7">
-        <v>7</v>
-      </c>
       <c r="I75" s="7">
-        <v>2429</v>
+        <v>2407</v>
       </c>
       <c r="J75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M75" s="7">
+        <v>10</v>
+      </c>
+      <c r="N75" s="7">
+        <v>5062</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P75" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K75" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M75" s="7">
-        <v>10</v>
-      </c>
-      <c r="N75" s="7">
-        <v>4368</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="Q75" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +4932,49 @@
         <v>2018</v>
       </c>
       <c r="C76" s="7">
+        <v>4</v>
+      </c>
+      <c r="D76" s="7">
+        <v>4724</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" s="7">
         <v>3</v>
       </c>
-      <c r="D76" s="7">
-        <v>1724</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H76" s="7">
-        <v>4</v>
-      </c>
       <c r="I76" s="7">
-        <v>3606</v>
+        <v>1879</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M76" s="7">
         <v>7</v>
       </c>
       <c r="N76" s="7">
-        <v>5330</v>
+        <v>6603</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +4983,49 @@
         <v>2017</v>
       </c>
       <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1417</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="7">
         <v>3</v>
       </c>
-      <c r="D77" s="7">
-        <v>1977</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H77" s="7">
-        <v>1</v>
-      </c>
       <c r="I77" s="7">
-        <v>1171</v>
+        <v>2195</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M77" s="7">
         <v>4</v>
       </c>
       <c r="N77" s="7">
-        <v>3148</v>
+        <v>3612</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,46 +5037,46 @@
         <v>1</v>
       </c>
       <c r="D78" s="7">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
       </c>
       <c r="I78" s="7">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M78" s="7">
         <v>2</v>
       </c>
       <c r="N78" s="7">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5085,49 @@
         <v>2014</v>
       </c>
       <c r="C79" s="7">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H79" s="7">
         <v>2</v>
       </c>
-      <c r="D79" s="7">
-        <v>1100</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
       <c r="I79" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
       </c>
       <c r="N79" s="7">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,49 +5136,49 @@
         <v>2013</v>
       </c>
       <c r="C80" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="H80" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="M80" s="7">
         <v>1</v>
       </c>
       <c r="N80" s="7">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,46 +5190,46 @@
         <v>1</v>
       </c>
       <c r="D81" s="7">
-        <v>635</v>
+        <v>818</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
       </c>
       <c r="I81" s="7">
-        <v>725</v>
+        <v>687</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M81" s="7">
         <v>2</v>
       </c>
       <c r="N81" s="7">
-        <v>1360</v>
+        <v>1505</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,49 +5238,49 @@
         <v>2011</v>
       </c>
       <c r="C82" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="H82" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
       </c>
       <c r="N82" s="7">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +5289,49 @@
         <v>2010</v>
       </c>
       <c r="C83" s="7">
+        <v>0</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H83" s="7">
         <v>3</v>
       </c>
-      <c r="D83" s="7">
-        <v>2447</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
       <c r="I83" s="7">
-        <v>0</v>
+        <v>2653</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="M83" s="7">
         <v>3</v>
       </c>
       <c r="N83" s="7">
-        <v>2447</v>
+        <v>2653</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,49 +5340,49 @@
         <v>2009</v>
       </c>
       <c r="C84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
       </c>
       <c r="N84" s="7">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,49 +5391,49 @@
         <v>2008</v>
       </c>
       <c r="C85" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H85" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
       </c>
       <c r="N85" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,49 +5442,49 @@
         <v>2007</v>
       </c>
       <c r="C86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H86" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M86" s="7">
         <v>1</v>
       </c>
       <c r="N86" s="7">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,49 +5493,49 @@
         <v>2006</v>
       </c>
       <c r="C87" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="H87" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M87" s="7">
         <v>1</v>
       </c>
       <c r="N87" s="7">
-        <v>620</v>
+        <v>687</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,10 +5544,10 @@
         <v>3</v>
       </c>
       <c r="C88" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" s="7">
-        <v>15696</v>
+        <v>13277</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>17</v>
@@ -5550,10 +5559,10 @@
         <v>17</v>
       </c>
       <c r="H88" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I88" s="7">
-        <v>11543</v>
+        <v>19852</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>17</v>
@@ -5568,7 +5577,7 @@
         <v>47</v>
       </c>
       <c r="N88" s="7">
-        <v>27239</v>
+        <v>33130</v>
       </c>
       <c r="O88" s="7" t="s">
         <v>17</v>
@@ -5582,7 +5591,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
